--- a/Compare the SMT and MILP for Job shop scheduling/Optimization problem/Results.xlsx
+++ b/Compare the SMT and MILP for Job shop scheduling/Optimization problem/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scheduling\GitHub\LSP_SMT_Machine_learning\Compare the SMT and MILP for Job shop scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scheduling\SMT Solver\job shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -150,12 +150,157 @@
         </r>
       </text>
     </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAMMAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+number of jobs-number of total operations-number of machine
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAMMAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(final solution-minimum obtained solution)/minimum obtained solution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAMMAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(final solution-minimum obtained solution)/minimum obtained solution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAMMAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(final solution-minimum obtained solution)/minimum obtained solution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAMMAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(final solution-minimum obtained solution)/minimum obtained solution</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MOHAMMAD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(final solution-minimum obtained solution)/minimum obtained solution</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t xml:space="preserve">IBM Cplex </t>
   </si>
@@ -163,9 +308,6 @@
     <t>Gurobi</t>
   </si>
   <si>
-    <t>SMT(Z3)</t>
-  </si>
-  <si>
     <t>Time (s)</t>
   </si>
   <si>
@@ -202,13 +344,37 @@
     <t>objective function</t>
   </si>
   <si>
+    <t>objective function = sum of the jobs complition time</t>
+  </si>
+  <si>
     <t>Gap% = (final solution-minimum obtained solution)/minimum obtained solution</t>
   </si>
   <si>
     <t>Sample = j(Number of jobs) - o(Number of total operations) - m(Number of machine)</t>
   </si>
   <si>
-    <t>objective function = sum of the jobs completion time</t>
+    <t>SMT(Z3)-Disjunctive graph formulation</t>
+  </si>
+  <si>
+    <t>SMT(Z3)-Disjunctive graph formulation &amp; Integer variables</t>
+  </si>
+  <si>
+    <t>SMT(Z3)-Disjunctive graph formulation &amp; Real variables</t>
+  </si>
+  <si>
+    <t>SMT(Z3)-Disjunctive graph formulation &amp; Real variables &amp; remove "end_time" veriable</t>
+  </si>
+  <si>
+    <t>SMT(Z3)-Disjunctive graph formulation &amp; SMT2 format</t>
+  </si>
+  <si>
+    <t>SMT(Z3)-Time Index formulation</t>
+  </si>
+  <si>
+    <t>unsat</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -272,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -499,12 +665,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,6 +783,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,6 +814,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -886,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N13"/>
+  <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,76 +1148,77 @@
     <col min="2" max="2" width="18.90625" customWidth="1"/>
     <col min="3" max="13" width="10.7265625" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="17" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:17" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+    </row>
+    <row r="3" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="30"/>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="2:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -1010,9 +1261,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10">
         <v>462</v>
@@ -1055,12 +1306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>803</v>
@@ -1070,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="6">
         <v>803</v>
@@ -1080,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
         <v>803</v>
@@ -1090,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" s="6">
         <v>829</v>
@@ -1100,12 +1351,12 @@
         <v>3.2378580323785801E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <v>1068</v>
@@ -1115,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="6">
         <v>1068</v>
@@ -1125,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3">
         <v>1072</v>
@@ -1135,7 +1386,7 @@
         <v>3.7453183520599251E-3</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" s="6">
         <v>1085</v>
@@ -1145,12 +1396,12 @@
         <v>1.5917602996254682E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
         <v>1602</v>
@@ -1160,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6">
         <v>1623</v>
@@ -1170,7 +1421,7 @@
         <v>1.3108614232209739E-2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3">
         <v>1606</v>
@@ -1180,7 +1431,7 @@
         <v>2.4968789013732834E-3</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" s="6">
         <v>1850</v>
@@ -1190,12 +1441,12 @@
         <v>0.15480649188514356</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5">
         <v>2503</v>
@@ -1205,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7">
         <v>2590</v>
@@ -1215,7 +1466,7 @@
         <v>3.4758290051937674E-2</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="5">
         <v>2867</v>
@@ -1225,7 +1476,7 @@
         <v>0.14542548941270475</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="7">
         <v>3200</v>
@@ -1235,23 +1486,438 @@
         <v>0.27846584099081101</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="26" t="s">
-        <v>17</v>
-      </c>
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="45"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="43"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="26" t="s">
+    <row r="13" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="30"/>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>265</v>
+      </c>
+      <c r="E14" s="27">
+        <f>(D14-MIN($P14,$M14,$J14,$G14,$D14))/MIN($P14,$M14,$J14,$G14,$D14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>265</v>
+      </c>
+      <c r="H14" s="16">
+        <f>(G14-MIN($P14,$M14,$J14,$G14,$D14))/MIN($P14,$M14,$J14,$G14,$D14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>265</v>
+      </c>
+      <c r="K14" s="27">
+        <f>(J14-MIN($P14,$M14,$J14,$G14,$D14))/MIN($P14,$M14,$J14,$G14,$D14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="6">
+        <v>265</v>
+      </c>
+      <c r="N14" s="49">
+        <f>(M14-MIN($P14,$M14,$J14,$G14,$D14))/MIN($P14,$M14,$J14,$G14,$D14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>175</v>
+      </c>
+      <c r="P14" s="3">
+        <v>265</v>
+      </c>
+      <c r="Q14" s="27">
+        <f t="shared" ref="Q14:Q18" si="4">IFERROR((P14-MIN($P14,$M14,$J14,$G14,$D14))/MIN($P14,$M14,$J14,$G14,$D14),"-")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1107</v>
+      </c>
+      <c r="D15" s="3">
+        <v>534</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" ref="E15:E19" si="5">(D15-MIN($P15,$M15,$J15,$G15,$D15))/MIN($P15,$M15,$J15,$G15,$D15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1085</v>
+      </c>
+      <c r="G15" s="6">
+        <v>534</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" ref="H15:H19" si="6">(G15-MIN($P15,$M15,$J15,$G15,$D15))/MIN($P15,$M15,$J15,$G15,$D15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>790</v>
+      </c>
+      <c r="J15" s="3">
+        <v>534</v>
+      </c>
+      <c r="K15" s="27">
+        <f t="shared" ref="K15:K19" si="7">(J15-MIN($P15,$M15,$J15,$G15,$D15))/MIN($P15,$M15,$J15,$G15,$D15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>720</v>
+      </c>
+      <c r="M15" s="6">
+        <v>534</v>
+      </c>
+      <c r="N15" s="49">
+        <f t="shared" ref="N15:N19" si="8">(M15-MIN($P15,$M15,$J15,$G15,$D15))/MIN($P15,$M15,$J15,$G15,$D15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>118</v>
+      </c>
+      <c r="P15" s="3">
+        <v>534</v>
+      </c>
+      <c r="Q15" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>829</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="5"/>
+        <v>1.8427518427518427E-2</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6">
+        <v>814</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>814</v>
+      </c>
+      <c r="K16" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="6">
+        <v>819</v>
+      </c>
+      <c r="N16" s="49">
+        <f t="shared" si="8"/>
+        <v>6.1425061425061421E-3</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="3">
+        <v>898</v>
+      </c>
+      <c r="Q16" s="27">
+        <f t="shared" si="4"/>
+        <v>0.10319410319410319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1085</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1102</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5668202764976959E-2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1102</v>
+      </c>
+      <c r="K17" s="27">
+        <f t="shared" si="7"/>
+        <v>1.5668202764976959E-2</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1112</v>
+      </c>
+      <c r="N17" s="49">
+        <f t="shared" si="8"/>
+        <v>2.488479262672811E-2</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1391</v>
+      </c>
+      <c r="Q17" s="27">
+        <f t="shared" si="4"/>
+        <v>0.28202764976958528</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1850</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="5"/>
+        <v>8.3138173302107723E-2</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1708</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1760</v>
+      </c>
+      <c r="K18" s="27">
+        <f t="shared" si="7"/>
+        <v>3.0444964871194378E-2</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1750</v>
+      </c>
+      <c r="N18" s="49">
+        <f t="shared" si="8"/>
+        <v>2.4590163934426229E-2</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2762</v>
+      </c>
+      <c r="Q18" s="27">
+        <f t="shared" si="4"/>
+        <v>0.61709601873536302</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3200</v>
+      </c>
+      <c r="E19" s="28">
+        <f>(D19-MIN($P19,$M19,$J19,$G19,$D19))/MIN($P19,$M19,$J19,$G19,$D19)</f>
+        <v>1.5228426395939087E-2</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3152</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3152</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3152</v>
+      </c>
+      <c r="N19" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="28" t="str">
+        <f>IFERROR((P19-MIN($P19,$M19,$J19,$G19,$D19))/MIN($P19,$M19,$J19,$G19,$D19),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B22" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B23" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="26" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B24" s="26" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="F2:H2"/>
